--- a/Code/Results/Cases/Case_6_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981294707014721</v>
+        <v>0.9981294707014701</v>
       </c>
       <c r="D2">
-        <v>1.014821552946378</v>
+        <v>1.014821552946377</v>
       </c>
       <c r="E2">
-        <v>1.010186872595155</v>
+        <v>1.010186872595153</v>
       </c>
       <c r="F2">
-        <v>1.012679242627791</v>
+        <v>1.012679242627789</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040153478486605</v>
+        <v>1.040153478486604</v>
       </c>
       <c r="J2">
-        <v>1.020366273282838</v>
+        <v>1.020366273282836</v>
       </c>
       <c r="K2">
-        <v>1.026078190731976</v>
+        <v>1.026078190731975</v>
       </c>
       <c r="L2">
-        <v>1.021506089198857</v>
+        <v>1.021506089198855</v>
       </c>
       <c r="M2">
-        <v>1.023964717002522</v>
+        <v>1.02396471700252</v>
       </c>
       <c r="N2">
-        <v>1.021815310428547</v>
+        <v>1.021815310428546</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -468,7 +468,7 @@
         <v>1.02173800531189</v>
       </c>
       <c r="E3">
-        <v>1.01831378587607</v>
+        <v>1.018313785876071</v>
       </c>
       <c r="F3">
         <v>1.021650230066455</v>
@@ -483,13 +483,13 @@
         <v>1.027576875901806</v>
       </c>
       <c r="K3">
-        <v>1.032100098946043</v>
+        <v>1.032100098946042</v>
       </c>
       <c r="L3">
         <v>1.028717580532644</v>
       </c>
       <c r="M3">
-        <v>1.032013388313431</v>
+        <v>1.032013388313432</v>
       </c>
       <c r="N3">
         <v>1.029036152930302</v>
@@ -503,7 +503,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012994992805975</v>
+        <v>1.012994992805974</v>
       </c>
       <c r="D4">
         <v>1.026055814953403</v>
@@ -530,7 +530,7 @@
         <v>1.033216084527999</v>
       </c>
       <c r="M4">
-        <v>1.037038437340891</v>
+        <v>1.03703843734089</v>
       </c>
       <c r="N4">
         <v>1.033537687746631</v>
@@ -547,10 +547,10 @@
         <v>1.015349392278237</v>
       </c>
       <c r="D5">
-        <v>1.027835692553532</v>
+        <v>1.027835692553531</v>
       </c>
       <c r="E5">
-        <v>1.025486575103399</v>
+        <v>1.025486575103398</v>
       </c>
       <c r="F5">
         <v>1.029571895257167</v>
@@ -562,10 +562,10 @@
         <v>1.044820360057092</v>
       </c>
       <c r="J5">
-        <v>1.033923585276774</v>
+        <v>1.033923585276773</v>
       </c>
       <c r="K5">
-        <v>1.0373929050823</v>
+        <v>1.037392905082299</v>
       </c>
       <c r="L5">
         <v>1.035069690619713</v>
@@ -574,7 +574,7 @@
         <v>1.039110056512316</v>
       </c>
       <c r="N5">
-        <v>1.03539187536056</v>
+        <v>1.035391875360559</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,13 +588,13 @@
         <v>1.015742042444352</v>
       </c>
       <c r="D6">
-        <v>1.028132535306284</v>
+        <v>1.028132535306285</v>
       </c>
       <c r="E6">
-        <v>1.025835973923488</v>
+        <v>1.025835973923489</v>
       </c>
       <c r="F6">
-        <v>1.029957879692101</v>
+        <v>1.029957879692102</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -603,19 +603,19 @@
         <v>1.044925514430743</v>
       </c>
       <c r="J6">
-        <v>1.03423230138033</v>
+        <v>1.034232301380331</v>
       </c>
       <c r="K6">
-        <v>1.037650153115542</v>
+        <v>1.037650153115543</v>
       </c>
       <c r="L6">
-        <v>1.03537878729613</v>
+        <v>1.035378787296131</v>
       </c>
       <c r="M6">
         <v>1.039455570025573</v>
       </c>
       <c r="N6">
-        <v>1.035701029876393</v>
+        <v>1.035701029876394</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,7 +629,7 @@
         <v>1.013026632865659</v>
       </c>
       <c r="D7">
-        <v>1.026079733596451</v>
+        <v>1.02607973359645</v>
       </c>
       <c r="E7">
         <v>1.023420157858327</v>
@@ -656,7 +656,7 @@
         <v>1.037066275568258</v>
       </c>
       <c r="N7">
-        <v>1.033562610531491</v>
+        <v>1.03356261053149</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -673,7 +673,7 @@
         <v>1.017193158147013</v>
       </c>
       <c r="E8">
-        <v>1.01297258340811</v>
+        <v>1.012972583408109</v>
       </c>
       <c r="F8">
         <v>1.015753810065771</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0410116802608</v>
+        <v>1.041011680260799</v>
       </c>
       <c r="J8">
         <v>1.022840129867541</v>
@@ -694,7 +694,7 @@
         <v>1.023979653878311</v>
       </c>
       <c r="M8">
-        <v>1.026724531968475</v>
+        <v>1.026724531968474</v>
       </c>
       <c r="N8">
         <v>1.024292680173355</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9787608594028641</v>
+        <v>0.9787608594028646</v>
       </c>
       <c r="D9">
         <v>1.000203824164894</v>
       </c>
       <c r="E9">
-        <v>0.9930336265125679</v>
+        <v>0.9930336265125683</v>
       </c>
       <c r="F9">
-        <v>0.9937558328809776</v>
+        <v>0.9937558328809781</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>1.034798737301461</v>
       </c>
       <c r="J9">
-        <v>1.005086582687978</v>
+        <v>1.005086582687979</v>
       </c>
       <c r="K9">
         <v>1.013293595329521</v>
@@ -738,7 +738,7 @@
         <v>1.006951036288537</v>
       </c>
       <c r="N9">
-        <v>1.006513920920437</v>
+        <v>1.006513920920438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9622641638692417</v>
+        <v>0.9622641638692422</v>
       </c>
       <c r="D10">
-        <v>0.9877818494683389</v>
+        <v>0.9877818494683392</v>
       </c>
       <c r="E10">
-        <v>0.9784716987232903</v>
+        <v>0.978471698723291</v>
       </c>
       <c r="F10">
-        <v>0.9776988137737685</v>
+        <v>0.9776988137737691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030173227465954</v>
+        <v>1.030173227465955</v>
       </c>
       <c r="J10">
-        <v>0.9920593136617605</v>
+        <v>0.9920593136617608</v>
       </c>
       <c r="K10">
-        <v>1.002375267076636</v>
+        <v>1.002375267076637</v>
       </c>
       <c r="L10">
-        <v>0.9932408453421744</v>
+        <v>0.993240845342175</v>
       </c>
       <c r="M10">
-        <v>0.9924827455119941</v>
+        <v>0.9924827455119947</v>
       </c>
       <c r="N10">
-        <v>0.993468151677954</v>
+        <v>0.9934681516779543</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9546864606682556</v>
+        <v>0.9546864606682551</v>
       </c>
       <c r="D11">
-        <v>0.9820871084915334</v>
+        <v>0.9820871084915332</v>
       </c>
       <c r="E11">
-        <v>0.9717979981856506</v>
+        <v>0.9717979981856502</v>
       </c>
       <c r="F11">
-        <v>0.9703411048945432</v>
+        <v>0.9703411048945423</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,19 +808,19 @@
         <v>1.028033354013527</v>
       </c>
       <c r="J11">
-        <v>0.9860738712916708</v>
+        <v>0.9860738712916706</v>
       </c>
       <c r="K11">
-        <v>0.9973549310271286</v>
+        <v>0.9973549310271281</v>
       </c>
       <c r="L11">
-        <v>0.9872721082217992</v>
+        <v>0.9872721082217989</v>
       </c>
       <c r="M11">
-        <v>0.9858448905450619</v>
+        <v>0.9858448905450612</v>
       </c>
       <c r="N11">
-        <v>0.9874742092931591</v>
+        <v>0.9874742092931589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517980381775977</v>
+        <v>0.9517980381775983</v>
       </c>
       <c r="D12">
-        <v>0.9799185286748406</v>
+        <v>0.9799185286748413</v>
       </c>
       <c r="E12">
-        <v>0.9692567499405254</v>
+        <v>0.9692567499405258</v>
       </c>
       <c r="F12">
-        <v>0.9675394853825627</v>
+        <v>0.9675394853825632</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.027215606717169</v>
       </c>
       <c r="J12">
-        <v>0.9837923896113662</v>
+        <v>0.9837923896113668</v>
       </c>
       <c r="K12">
-        <v>0.9954408428698108</v>
+        <v>0.9954408428698115</v>
       </c>
       <c r="L12">
-        <v>0.9849976340657512</v>
+        <v>0.9849976340657518</v>
       </c>
       <c r="M12">
-        <v>0.9833161694777011</v>
+        <v>0.9833161694777014</v>
       </c>
       <c r="N12">
-        <v>0.9851894876471786</v>
+        <v>0.9851894876471792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524211038446295</v>
+        <v>0.9524211038446292</v>
       </c>
       <c r="D13">
-        <v>0.9803862137227376</v>
+        <v>0.9803862137227375</v>
       </c>
       <c r="E13">
-        <v>0.969804804018204</v>
+        <v>0.9698048040182033</v>
       </c>
       <c r="F13">
-        <v>0.9681436895710451</v>
+        <v>0.9681436895710446</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027392094626579</v>
+        <v>1.027392094626578</v>
       </c>
       <c r="J13">
-        <v>0.9842845266607549</v>
+        <v>0.9842845266607545</v>
       </c>
       <c r="K13">
-        <v>0.9958537494281429</v>
+        <v>0.9958537494281426</v>
       </c>
       <c r="L13">
-        <v>0.985488230326247</v>
+        <v>0.9854882303262464</v>
       </c>
       <c r="M13">
-        <v>0.9838615735729223</v>
+        <v>0.9838615735729218</v>
       </c>
       <c r="N13">
-        <v>0.9856823235876264</v>
+        <v>0.9856823235876259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544492612508232</v>
+        <v>0.954449261250824</v>
       </c>
       <c r="D14">
-        <v>0.9819089778565004</v>
+        <v>0.9819089778565009</v>
       </c>
       <c r="E14">
-        <v>0.9715892546613561</v>
+        <v>0.9715892546613571</v>
       </c>
       <c r="F14">
-        <v>0.9701109726836639</v>
+        <v>0.9701109726836651</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.027966240921481</v>
       </c>
       <c r="J14">
-        <v>0.985886512634311</v>
+        <v>0.9858865126343118</v>
       </c>
       <c r="K14">
-        <v>0.997197752298704</v>
+        <v>0.9971977522987046</v>
       </c>
       <c r="L14">
-        <v>0.9870853119624674</v>
+        <v>0.9870853119624684</v>
       </c>
       <c r="M14">
-        <v>0.9856371991205795</v>
+        <v>0.9856371991205803</v>
       </c>
       <c r="N14">
-        <v>0.9872865845650151</v>
+        <v>0.9872865845650161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9556888271050867</v>
+        <v>0.9556888271050885</v>
       </c>
       <c r="D15">
-        <v>0.9828399477902674</v>
+        <v>0.9828399477902688</v>
       </c>
       <c r="E15">
-        <v>0.9726802215328522</v>
+        <v>0.9726802215328541</v>
       </c>
       <c r="F15">
-        <v>0.9713137273791507</v>
+        <v>0.9713137273791529</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.028316879908178</v>
       </c>
       <c r="J15">
-        <v>0.9868656206593651</v>
+        <v>0.9868656206593672</v>
       </c>
       <c r="K15">
-        <v>0.9980191258583468</v>
+        <v>0.9980191258583484</v>
       </c>
       <c r="L15">
-        <v>0.9880615070361335</v>
+        <v>0.9880615070361354</v>
       </c>
       <c r="M15">
-        <v>0.9867226214721045</v>
+        <v>0.9867226214721067</v>
       </c>
       <c r="N15">
-        <v>0.9882670830357704</v>
+        <v>0.9882670830357722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,10 +995,10 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9627572301881842</v>
+        <v>0.9627572301881847</v>
       </c>
       <c r="D16">
-        <v>0.9881526597651902</v>
+        <v>0.9881526597651905</v>
       </c>
       <c r="E16">
         <v>0.9789062811392742</v>
@@ -1013,19 +1013,19 @@
         <v>1.03031216868789</v>
       </c>
       <c r="J16">
-        <v>0.9924487636090684</v>
+        <v>0.9924487636090689</v>
       </c>
       <c r="K16">
-        <v>1.002701850083156</v>
+        <v>1.002701850083157</v>
       </c>
       <c r="L16">
         <v>0.9936292948128465</v>
       </c>
       <c r="M16">
-        <v>0.9929148434062038</v>
+        <v>0.992914843406204</v>
       </c>
       <c r="N16">
-        <v>0.9938581546888576</v>
+        <v>0.993858154688858</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,19 +1033,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.967069224671593</v>
+        <v>0.9670692246715913</v>
       </c>
       <c r="D17">
-        <v>0.9913967951267801</v>
+        <v>0.9913967951267789</v>
       </c>
       <c r="E17">
-        <v>0.9827085579548305</v>
+        <v>0.9827085579548284</v>
       </c>
       <c r="F17">
-        <v>0.982370214931082</v>
+        <v>0.9823702149310799</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.031525569752432</v>
       </c>
       <c r="J17">
-        <v>0.9958544708328742</v>
+        <v>0.9958544708328724</v>
       </c>
       <c r="K17">
-        <v>1.005557370157883</v>
+        <v>1.005557370157881</v>
       </c>
       <c r="L17">
-        <v>0.9970267171589825</v>
+        <v>0.9970267171589804</v>
       </c>
       <c r="M17">
-        <v>0.9966945843328019</v>
+        <v>0.9966945843327997</v>
       </c>
       <c r="N17">
-        <v>0.9972686984075609</v>
+        <v>0.9972686984075597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,7 +1077,7 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9695430574457313</v>
+        <v>0.9695430574457312</v>
       </c>
       <c r="D18">
         <v>0.9932590047106723</v>
@@ -1086,7 +1086,7 @@
         <v>0.9848913613259119</v>
       </c>
       <c r="F18">
-        <v>0.9847770161291868</v>
+        <v>0.9847770161291867</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>1.032220284584118</v>
       </c>
       <c r="J18">
-        <v>0.9978082106806382</v>
+        <v>0.9978082106806383</v>
       </c>
       <c r="K18">
         <v>1.007195119934618</v>
@@ -1107,7 +1107,7 @@
         <v>0.998863795766504</v>
       </c>
       <c r="N18">
-        <v>0.999225212790006</v>
+        <v>0.9992252127900062</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9703798005254878</v>
+        <v>0.9703798005254864</v>
       </c>
       <c r="D19">
-        <v>0.9938890353789218</v>
+        <v>0.9938890353789211</v>
       </c>
       <c r="E19">
-        <v>0.9856298969734069</v>
+        <v>0.9856298969734052</v>
       </c>
       <c r="F19">
-        <v>0.9855913620913652</v>
+        <v>0.9855913620913639</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>1.03245501623545</v>
       </c>
       <c r="J19">
-        <v>0.9984690078556788</v>
+        <v>0.9984690078556775</v>
       </c>
       <c r="K19">
         <v>1.007748977555695</v>
       </c>
       <c r="L19">
-        <v>0.9996354712416755</v>
+        <v>0.9996354712416742</v>
       </c>
       <c r="M19">
-        <v>0.9995976232653928</v>
+        <v>0.9995976232653915</v>
       </c>
       <c r="N19">
-        <v>0.9998869483728298</v>
+        <v>0.9998869483728287</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.966610914442091</v>
+        <v>0.9666109144420916</v>
       </c>
       <c r="D20">
-        <v>0.9910518760871723</v>
+        <v>0.9910518760871726</v>
       </c>
       <c r="E20">
-        <v>0.9823042765191304</v>
+        <v>0.9823042765191312</v>
       </c>
       <c r="F20">
-        <v>0.9819244564989302</v>
+        <v>0.9819244564989313</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.031396747699662</v>
       </c>
       <c r="J20">
-        <v>0.9954925012888679</v>
+        <v>0.9954925012888685</v>
       </c>
       <c r="K20">
         <v>1.00525391372944</v>
       </c>
       <c r="L20">
-        <v>0.996665588147326</v>
+        <v>0.9966655881473269</v>
       </c>
       <c r="M20">
-        <v>0.9962927675660692</v>
+        <v>0.9962927675660702</v>
       </c>
       <c r="N20">
-        <v>0.9969062148252841</v>
+        <v>0.9969062148252843</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9538541304180688</v>
+        <v>0.9538541304180675</v>
       </c>
       <c r="D21">
-        <v>0.9814620853168455</v>
+        <v>0.9814620853168442</v>
       </c>
       <c r="E21">
-        <v>0.971065562063417</v>
+        <v>0.9710655620634162</v>
       </c>
       <c r="F21">
-        <v>0.9695336215732371</v>
+        <v>0.9695336215732361</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.027797822155629</v>
       </c>
       <c r="J21">
-        <v>0.9854164327723505</v>
+        <v>0.9854164327723495</v>
       </c>
       <c r="K21">
-        <v>0.9968033860976883</v>
+        <v>0.9968033860976871</v>
       </c>
       <c r="L21">
-        <v>0.9866166534917009</v>
+        <v>0.9866166534916999</v>
       </c>
       <c r="M21">
-        <v>0.9851161277755517</v>
+        <v>0.9851161277755508</v>
       </c>
       <c r="N21">
-        <v>0.9868158371357317</v>
+        <v>0.986815837135731</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9454014485647247</v>
+        <v>0.9454014485647263</v>
       </c>
       <c r="D22">
-        <v>0.9751204989768133</v>
+        <v>0.9751204989768144</v>
       </c>
       <c r="E22">
-        <v>0.9636341740462193</v>
+        <v>0.963634174046221</v>
       </c>
       <c r="F22">
-        <v>0.9613408829962028</v>
+        <v>0.9613408829962048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025401041727112</v>
+        <v>1.025401041727113</v>
       </c>
       <c r="J22">
-        <v>0.978740215614473</v>
+        <v>0.9787402156144746</v>
       </c>
       <c r="K22">
-        <v>0.9912014777129663</v>
+        <v>0.9912014777129676</v>
       </c>
       <c r="L22">
-        <v>0.9799621873823383</v>
+        <v>0.9799621873823398</v>
       </c>
       <c r="M22">
-        <v>0.9777191578918254</v>
+        <v>0.9777191578918273</v>
       </c>
       <c r="N22">
-        <v>0.9801301389837176</v>
+        <v>0.9801301389837188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499265803736825</v>
+        <v>0.9499265803736832</v>
       </c>
       <c r="D23">
-        <v>0.9785141213217048</v>
+        <v>0.9785141213217051</v>
       </c>
       <c r="E23">
-        <v>0.967611004935613</v>
+        <v>0.9676110049356134</v>
       </c>
       <c r="F23">
-        <v>0.9657251331910529</v>
+        <v>0.9657251331910535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026685213790296</v>
+        <v>1.026685213790297</v>
       </c>
       <c r="J23">
-        <v>0.982314214049222</v>
+        <v>0.9823142140492228</v>
       </c>
       <c r="K23">
-        <v>0.9942005814984842</v>
+        <v>0.9942005814984849</v>
       </c>
       <c r="L23">
-        <v>0.9835241819409006</v>
+        <v>0.983524181940901</v>
       </c>
       <c r="M23">
-        <v>0.9816782123225289</v>
+        <v>0.9816782123225297</v>
       </c>
       <c r="N23">
-        <v>0.9837092129061873</v>
+        <v>0.9837092129061878</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668181320589122</v>
+        <v>0.9668181320589135</v>
       </c>
       <c r="D24">
-        <v>0.9912078225587901</v>
+        <v>0.9912078225587911</v>
       </c>
       <c r="E24">
-        <v>0.9824870615464458</v>
+        <v>0.9824870615464472</v>
       </c>
       <c r="F24">
-        <v>0.9821259938687119</v>
+        <v>0.9821259938687135</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031454996972184</v>
+        <v>1.031454996972185</v>
       </c>
       <c r="J24">
-        <v>0.9956561604843657</v>
+        <v>0.9956561604843669</v>
       </c>
       <c r="K24">
-        <v>1.0053911182287</v>
+        <v>1.005391118228701</v>
       </c>
       <c r="L24">
-        <v>0.9968288661173448</v>
+        <v>0.996828866117346</v>
       </c>
       <c r="M24">
-        <v>0.9964744402914294</v>
+        <v>0.9964744402914308</v>
       </c>
       <c r="N24">
-        <v>0.9970701064356114</v>
+        <v>0.9970701064356124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9848187060941815</v>
+        <v>0.98481870609418</v>
       </c>
       <c r="D25">
-        <v>1.004772513178581</v>
+        <v>1.004772513178579</v>
       </c>
       <c r="E25">
-        <v>0.9983921582038375</v>
+        <v>0.998392158203836</v>
       </c>
       <c r="F25">
-        <v>0.9996660131136783</v>
+        <v>0.9996660131136768</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.036483554593371</v>
       </c>
       <c r="J25">
-        <v>1.009868009835228</v>
+        <v>1.009868009835226</v>
       </c>
       <c r="K25">
-        <v>1.017297191052049</v>
+        <v>1.017297191052047</v>
       </c>
       <c r="L25">
-        <v>1.011015485227203</v>
+        <v>1.011015485227201</v>
       </c>
       <c r="M25">
-        <v>1.012269516011809</v>
+        <v>1.012269516011808</v>
       </c>
       <c r="N25">
-        <v>1.011302138242673</v>
+        <v>1.011302138242671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981294707014701</v>
+        <v>0.9999454905188482</v>
       </c>
       <c r="D2">
-        <v>1.014821552946377</v>
+        <v>1.019372342552182</v>
       </c>
       <c r="E2">
-        <v>1.010186872595153</v>
+        <v>1.012490637500293</v>
       </c>
       <c r="F2">
-        <v>1.012679242627789</v>
+        <v>1.014905955074203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040153478486604</v>
+        <v>1.042626871162079</v>
       </c>
       <c r="J2">
-        <v>1.020366273282836</v>
+        <v>1.022127832077283</v>
       </c>
       <c r="K2">
-        <v>1.026078190731975</v>
+        <v>1.030568229209685</v>
       </c>
       <c r="L2">
-        <v>1.021506089198855</v>
+        <v>1.023778657945097</v>
       </c>
       <c r="M2">
-        <v>1.02396471700252</v>
+        <v>1.026161459896265</v>
       </c>
       <c r="N2">
-        <v>1.021815310428546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010830192831298</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032684571739293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007282797395717</v>
+        <v>1.005103139029966</v>
       </c>
       <c r="D3">
-        <v>1.02173800531189</v>
+        <v>1.022716046847952</v>
       </c>
       <c r="E3">
-        <v>1.018313785876071</v>
+        <v>1.01698707151608</v>
       </c>
       <c r="F3">
-        <v>1.021650230066455</v>
+        <v>1.020089719139454</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042647009255379</v>
+        <v>1.043581043438187</v>
       </c>
       <c r="J3">
-        <v>1.027576875901806</v>
+        <v>1.025455647498113</v>
       </c>
       <c r="K3">
-        <v>1.032100098946042</v>
+        <v>1.033066293315233</v>
       </c>
       <c r="L3">
-        <v>1.028717580532644</v>
+        <v>1.02740711711478</v>
       </c>
       <c r="M3">
-        <v>1.032013388313432</v>
+        <v>1.030471842595454</v>
       </c>
       <c r="N3">
-        <v>1.029036152930302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01198837613156</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034448266508897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012994992805974</v>
+        <v>1.008368386540066</v>
       </c>
       <c r="D4">
-        <v>1.026055814953403</v>
+        <v>1.02483628283853</v>
       </c>
       <c r="E4">
-        <v>1.023392015356939</v>
+        <v>1.019839930713564</v>
       </c>
       <c r="F4">
-        <v>1.027258230179748</v>
+        <v>1.023379302337374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044188558506968</v>
+        <v>1.044174385197178</v>
       </c>
       <c r="J4">
-        <v>1.03207202708785</v>
+        <v>1.02756042377207</v>
       </c>
       <c r="K4">
-        <v>1.035849619799213</v>
+        <v>1.034643919123253</v>
       </c>
       <c r="L4">
-        <v>1.033216084527999</v>
+        <v>1.029704659977204</v>
       </c>
       <c r="M4">
-        <v>1.03703843734089</v>
+        <v>1.033203516411289</v>
       </c>
       <c r="N4">
-        <v>1.033537687746631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012720390252871</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035564702490886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015349392278237</v>
+        <v>1.009729424433704</v>
       </c>
       <c r="D5">
-        <v>1.027835692553531</v>
+        <v>1.025723107907387</v>
       </c>
       <c r="E5">
-        <v>1.025486575103398</v>
+        <v>1.021030881870954</v>
       </c>
       <c r="F5">
-        <v>1.029571895257167</v>
+        <v>1.024752174786796</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044820360057092</v>
+        <v>1.044420795426819</v>
       </c>
       <c r="J5">
-        <v>1.033923585276773</v>
+        <v>1.02843884066318</v>
       </c>
       <c r="K5">
-        <v>1.037392905082299</v>
+        <v>1.035303608646837</v>
       </c>
       <c r="L5">
-        <v>1.035069690619713</v>
+        <v>1.030663531888524</v>
       </c>
       <c r="M5">
-        <v>1.039110056512316</v>
+        <v>1.034343418266875</v>
       </c>
       <c r="N5">
-        <v>1.035391875360559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013026370773529</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036038374334067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015742042444352</v>
+        <v>1.009962949161931</v>
       </c>
       <c r="D6">
-        <v>1.028132535306285</v>
+        <v>1.025878124985399</v>
       </c>
       <c r="E6">
-        <v>1.025835973923489</v>
+        <v>1.021235741482415</v>
       </c>
       <c r="F6">
-        <v>1.029957879692102</v>
+        <v>1.024987647345305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044925514430743</v>
+        <v>1.044465009503006</v>
       </c>
       <c r="J6">
-        <v>1.034232301380331</v>
+        <v>1.02859149488721</v>
       </c>
       <c r="K6">
-        <v>1.037650153115543</v>
+        <v>1.035420474670448</v>
       </c>
       <c r="L6">
-        <v>1.035378787296131</v>
+        <v>1.030829443194382</v>
       </c>
       <c r="M6">
-        <v>1.039455570025573</v>
+        <v>1.034539802795359</v>
       </c>
       <c r="N6">
-        <v>1.035701029876394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013080280438299</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036129799901843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013026632865659</v>
+        <v>1.00840270574851</v>
       </c>
       <c r="D7">
-        <v>1.02607973359645</v>
+        <v>1.024866191660984</v>
       </c>
       <c r="E7">
-        <v>1.023420157858327</v>
+        <v>1.019871140462661</v>
       </c>
       <c r="F7">
-        <v>1.027289314170168</v>
+        <v>1.023413412369288</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044197063393727</v>
+        <v>1.044186240954183</v>
       </c>
       <c r="J7">
-        <v>1.032096914529688</v>
+        <v>1.02758787170649</v>
       </c>
       <c r="K7">
-        <v>1.035870368241831</v>
+        <v>1.034670584321875</v>
       </c>
       <c r="L7">
-        <v>1.033240996858428</v>
+        <v>1.029732587956897</v>
       </c>
       <c r="M7">
-        <v>1.037066275568258</v>
+        <v>1.03323432822295</v>
       </c>
       <c r="N7">
-        <v>1.03356261053149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012731983145774</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035603782469795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001268664985315</v>
+        <v>1.001724265693121</v>
       </c>
       <c r="D8">
-        <v>1.017193158147013</v>
+        <v>1.020534185905217</v>
       </c>
       <c r="E8">
-        <v>1.012972583408109</v>
+        <v>1.014041657118538</v>
       </c>
       <c r="F8">
-        <v>1.015753810065771</v>
+        <v>1.016691573826098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041011680260799</v>
+        <v>1.042965180111551</v>
       </c>
       <c r="J8">
-        <v>1.022840129867541</v>
+        <v>1.02328256862977</v>
       </c>
       <c r="K8">
-        <v>1.028145166548815</v>
+        <v>1.031443010845768</v>
       </c>
       <c r="L8">
-        <v>1.023979653878311</v>
+        <v>1.025034726032543</v>
       </c>
       <c r="M8">
-        <v>1.026724531968474</v>
+        <v>1.027650095982063</v>
       </c>
       <c r="N8">
-        <v>1.024292680173355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011234868354401</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033326203175995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9787608594028646</v>
+        <v>0.989343923707028</v>
       </c>
       <c r="D9">
-        <v>1.000203824164894</v>
+        <v>1.012522033216236</v>
       </c>
       <c r="E9">
-        <v>0.9930336265125683</v>
+        <v>1.003284967034444</v>
       </c>
       <c r="F9">
-        <v>0.9937558328809781</v>
+        <v>1.004295284626623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034798737301461</v>
+        <v>1.040608941309545</v>
       </c>
       <c r="J9">
-        <v>1.005086582687979</v>
+        <v>1.015278669738122</v>
       </c>
       <c r="K9">
-        <v>1.013293595329521</v>
+        <v>1.025415164319066</v>
       </c>
       <c r="L9">
-        <v>1.006240748567164</v>
+        <v>1.016324971827511</v>
       </c>
       <c r="M9">
-        <v>1.006951036288537</v>
+        <v>1.017319056120775</v>
       </c>
       <c r="N9">
-        <v>1.006513920920438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008444373141046</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029060822888527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9622641638692422</v>
+        <v>0.9806514336301387</v>
       </c>
       <c r="D10">
-        <v>0.9877818494683392</v>
+        <v>1.006925581136597</v>
       </c>
       <c r="E10">
-        <v>0.978471698723291</v>
+        <v>0.9957718561690957</v>
       </c>
       <c r="F10">
-        <v>0.9776988137737691</v>
+        <v>0.9956371812257249</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030173227465955</v>
+        <v>1.038903293719411</v>
       </c>
       <c r="J10">
-        <v>0.9920593136617608</v>
+        <v>1.009654318186822</v>
       </c>
       <c r="K10">
-        <v>1.002375267076637</v>
+        <v>1.021170907898064</v>
       </c>
       <c r="L10">
-        <v>0.993240845342175</v>
+        <v>1.010217873012776</v>
       </c>
       <c r="M10">
-        <v>0.9924827455119947</v>
+        <v>1.010085657054443</v>
       </c>
       <c r="N10">
-        <v>0.9934681516779543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006482551632507</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026076794675198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9546864606682551</v>
+        <v>0.9767917652133628</v>
       </c>
       <c r="D11">
-        <v>0.9820871084915332</v>
+        <v>1.004457669148964</v>
       </c>
       <c r="E11">
-        <v>0.9717979981856502</v>
+        <v>0.9924480277139428</v>
       </c>
       <c r="F11">
-        <v>0.9703411048945423</v>
+        <v>0.9918040401083771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028033354013527</v>
+        <v>1.038141190647426</v>
       </c>
       <c r="J11">
-        <v>0.9860738712916706</v>
+        <v>1.007162953138294</v>
       </c>
       <c r="K11">
-        <v>0.9973549310271281</v>
+        <v>1.019296007148229</v>
       </c>
       <c r="L11">
-        <v>0.9872721082217989</v>
+        <v>1.007513782423387</v>
       </c>
       <c r="M11">
-        <v>0.9858448905450612</v>
+        <v>1.006882193270711</v>
       </c>
       <c r="N11">
-        <v>0.9874742092931589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005616528655068</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024784400924093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517980381775983</v>
+        <v>0.9753272276636106</v>
       </c>
       <c r="D12">
-        <v>0.9799185286748413</v>
+        <v>1.003517186294631</v>
       </c>
       <c r="E12">
-        <v>0.9692567499405258</v>
+        <v>0.9911872498585992</v>
       </c>
       <c r="F12">
-        <v>0.9675394853825632</v>
+        <v>0.9903514154068178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027215606717169</v>
+        <v>1.037846390203251</v>
       </c>
       <c r="J12">
-        <v>0.9837923896113668</v>
+        <v>1.006213774947561</v>
       </c>
       <c r="K12">
-        <v>0.9954408428698115</v>
+        <v>1.018577311367544</v>
       </c>
       <c r="L12">
-        <v>0.9849976340657518</v>
+        <v>1.006485258519309</v>
       </c>
       <c r="M12">
-        <v>0.9833161694777014</v>
+        <v>1.005665831404206</v>
       </c>
       <c r="N12">
-        <v>0.9851894876471792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005284794205648</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02427624619788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524211038446292</v>
+        <v>0.9756398469606965</v>
       </c>
       <c r="D13">
-        <v>0.9803862137227375</v>
+        <v>1.003716849270361</v>
       </c>
       <c r="E13">
-        <v>0.9698048040182033</v>
+        <v>0.9914560688226935</v>
       </c>
       <c r="F13">
-        <v>0.9681436895710446</v>
+        <v>0.9906614204238293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027392094626578</v>
+        <v>1.037908632566447</v>
       </c>
       <c r="J13">
-        <v>0.9842845266607545</v>
+        <v>1.006415649646849</v>
       </c>
       <c r="K13">
-        <v>0.9958537494281426</v>
+        <v>1.018729389227519</v>
       </c>
       <c r="L13">
-        <v>0.9854882303262464</v>
+        <v>1.006704217271753</v>
       </c>
       <c r="M13">
-        <v>0.9838615735729218</v>
+        <v>1.005925103244966</v>
       </c>
       <c r="N13">
-        <v>0.9856823235876259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005354999568422</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024381244313353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.954449261250824</v>
+        <v>0.9766700753084927</v>
       </c>
       <c r="D14">
-        <v>0.9819089778565009</v>
+        <v>1.004379055837973</v>
       </c>
       <c r="E14">
-        <v>0.9715892546613571</v>
+        <v>0.9923431366288438</v>
       </c>
       <c r="F14">
-        <v>0.9701109726836651</v>
+        <v>0.9916833080142617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027966240921481</v>
+        <v>1.03811640492374</v>
       </c>
       <c r="J14">
-        <v>0.9858865126343118</v>
+        <v>1.007083770936622</v>
       </c>
       <c r="K14">
-        <v>0.9971977522987046</v>
+        <v>1.019235720532047</v>
       </c>
       <c r="L14">
-        <v>0.9870853119624684</v>
+        <v>1.007428069893555</v>
       </c>
       <c r="M14">
-        <v>0.9856371991205803</v>
+        <v>1.006780965219615</v>
       </c>
       <c r="N14">
-        <v>0.9872865845650161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00558870649613</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024740692152238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9556888271050885</v>
+        <v>0.9773070351774937</v>
       </c>
       <c r="D15">
-        <v>0.9828399477902688</v>
+        <v>1.004790699920121</v>
       </c>
       <c r="E15">
-        <v>0.9726802215328541</v>
+        <v>0.9928922549216912</v>
       </c>
       <c r="F15">
-        <v>0.9713137273791529</v>
+        <v>0.9923153253311318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028316879908178</v>
+        <v>1.038246148316119</v>
       </c>
       <c r="J15">
-        <v>0.9868656206593672</v>
+        <v>1.007498306641678</v>
       </c>
       <c r="K15">
-        <v>0.9980191258583484</v>
+        <v>1.019551404018874</v>
       </c>
       <c r="L15">
-        <v>0.9880615070361354</v>
+        <v>1.007876788508757</v>
       </c>
       <c r="M15">
-        <v>0.9867226214721067</v>
+        <v>1.007310890499008</v>
       </c>
       <c r="N15">
-        <v>0.9882670830357722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005734394093455</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024969850817544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9627572301881847</v>
+        <v>0.9809455765012238</v>
       </c>
       <c r="D16">
-        <v>0.9881526597651905</v>
+        <v>1.007131647994583</v>
       </c>
       <c r="E16">
-        <v>0.9789062811392742</v>
+        <v>0.9960292586558426</v>
       </c>
       <c r="F16">
-        <v>0.9781779552208166</v>
+        <v>0.9959292860449313</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03031216868789</v>
+        <v>1.038974231147163</v>
       </c>
       <c r="J16">
-        <v>0.9924487636090689</v>
+        <v>1.00985685067318</v>
       </c>
       <c r="K16">
-        <v>1.002701850083157</v>
+        <v>1.021337018238146</v>
       </c>
       <c r="L16">
-        <v>0.9936292948128465</v>
+        <v>1.010433688305745</v>
       </c>
       <c r="M16">
-        <v>0.992914843406204</v>
+        <v>1.010335534380848</v>
       </c>
       <c r="N16">
-        <v>0.993858154688858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006558842897408</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026235577931702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9670692246715913</v>
+        <v>0.9831952528716106</v>
       </c>
       <c r="D17">
-        <v>0.9913967951267789</v>
+        <v>1.008581058087613</v>
       </c>
       <c r="E17">
-        <v>0.9827085579548284</v>
+        <v>0.9979715244459719</v>
       </c>
       <c r="F17">
-        <v>0.9823702149310799</v>
+        <v>0.9981668048715303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031525569752432</v>
+        <v>1.039421258608608</v>
       </c>
       <c r="J17">
-        <v>0.9958544708328724</v>
+        <v>1.011314889733395</v>
       </c>
       <c r="K17">
-        <v>1.005557370157881</v>
+        <v>1.022440284732232</v>
       </c>
       <c r="L17">
-        <v>0.9970267171589804</v>
+        <v>1.012015213912502</v>
       </c>
       <c r="M17">
-        <v>0.9966945843327997</v>
+        <v>1.012207053168089</v>
       </c>
       <c r="N17">
-        <v>0.9972686984075597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00706840805524</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.02701825993629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9695430574457312</v>
+        <v>0.984483684559498</v>
       </c>
       <c r="D18">
-        <v>0.9932590047106723</v>
+        <v>1.009406415211358</v>
       </c>
       <c r="E18">
-        <v>0.9848913613259119</v>
+        <v>0.9990836873323998</v>
       </c>
       <c r="F18">
-        <v>0.9847770161291867</v>
+        <v>0.9994494570033691</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032220284584118</v>
+        <v>1.039672128846005</v>
       </c>
       <c r="J18">
-        <v>0.9978082106806383</v>
+        <v>1.012145972819354</v>
       </c>
       <c r="K18">
-        <v>1.007195119934618</v>
+        <v>1.023064733279193</v>
       </c>
       <c r="L18">
-        <v>0.998976087444731</v>
+        <v>1.012918256293729</v>
       </c>
       <c r="M18">
-        <v>0.998863795766504</v>
+        <v>1.01327770030806</v>
       </c>
       <c r="N18">
-        <v>0.9992252127900062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007357057881782</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027447993171256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9703798005254864</v>
+        <v>0.9849306670002697</v>
       </c>
       <c r="D19">
-        <v>0.9938890353789211</v>
+        <v>1.009697091199988</v>
       </c>
       <c r="E19">
-        <v>0.9856298969734052</v>
+        <v>0.9994705662593535</v>
       </c>
       <c r="F19">
-        <v>0.9855913620913639</v>
+        <v>0.9998945254704208</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03245501623545</v>
+        <v>1.039762088214562</v>
       </c>
       <c r="J19">
-        <v>0.9984690078556775</v>
+        <v>1.012437281546782</v>
       </c>
       <c r="K19">
-        <v>1.007748977555695</v>
+        <v>1.023286856458879</v>
       </c>
       <c r="L19">
-        <v>0.9996354712416742</v>
+        <v>1.013233852144956</v>
       </c>
       <c r="M19">
-        <v>0.9995976232653915</v>
+        <v>1.013650526583852</v>
       </c>
       <c r="N19">
-        <v>0.9998869483728287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007459607024622</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.02761151458099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9666109144420916</v>
+        <v>0.9829541069581095</v>
       </c>
       <c r="D20">
-        <v>0.9910518760871726</v>
+        <v>1.008425198924802</v>
       </c>
       <c r="E20">
-        <v>0.9823042765191312</v>
+        <v>0.997763141906637</v>
       </c>
       <c r="F20">
-        <v>0.9819244564989313</v>
+        <v>0.9979268578536629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031396747699662</v>
+        <v>1.039373148527334</v>
       </c>
       <c r="J20">
-        <v>0.9954925012888685</v>
+        <v>1.011158310133075</v>
       </c>
       <c r="K20">
-        <v>1.00525391372944</v>
+        <v>1.022321501675423</v>
       </c>
       <c r="L20">
-        <v>0.9966655881473269</v>
+        <v>1.011845438134093</v>
       </c>
       <c r="M20">
-        <v>0.9962927675660702</v>
+        <v>1.012006259184239</v>
       </c>
       <c r="N20">
-        <v>0.9969062148252843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007013551624841</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026932922754416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9538541304180675</v>
+        <v>0.9763807360014378</v>
       </c>
       <c r="D21">
-        <v>0.9814620853168442</v>
+        <v>1.004198839384131</v>
       </c>
       <c r="E21">
-        <v>0.9710655620634162</v>
+        <v>0.9920952624955663</v>
       </c>
       <c r="F21">
-        <v>0.9695336215732361</v>
+        <v>0.9913962070824892</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027797822155629</v>
+        <v>1.038062375367588</v>
       </c>
       <c r="J21">
-        <v>0.9854164327723495</v>
+        <v>1.006900271970903</v>
       </c>
       <c r="K21">
-        <v>0.9968033860976871</v>
+        <v>1.019101097727342</v>
       </c>
       <c r="L21">
-        <v>0.9866166534916999</v>
+        <v>1.007227956200242</v>
       </c>
       <c r="M21">
-        <v>0.9851161277755508</v>
+        <v>1.006542435105545</v>
       </c>
       <c r="N21">
-        <v>0.986815837135731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005526481981601</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024659211200225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9454014485647263</v>
+        <v>0.9721198993811468</v>
       </c>
       <c r="D22">
-        <v>0.9751204989768144</v>
+        <v>1.001459238978492</v>
       </c>
       <c r="E22">
-        <v>0.963634174046221</v>
+        <v>0.9884290032689232</v>
       </c>
       <c r="F22">
-        <v>0.9613408829962048</v>
+        <v>0.9871735029519528</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025401041727113</v>
+        <v>1.037197124305259</v>
       </c>
       <c r="J22">
-        <v>0.9787402156144746</v>
+        <v>1.004134494980309</v>
       </c>
       <c r="K22">
-        <v>0.9912014777129676</v>
+        <v>1.017001843380845</v>
       </c>
       <c r="L22">
-        <v>0.9799621873823398</v>
+        <v>1.004233222485533</v>
       </c>
       <c r="M22">
-        <v>0.9777191578918273</v>
+        <v>1.003003410710031</v>
       </c>
       <c r="N22">
-        <v>0.9801301389837188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004557780001858</v>
+      </c>
+      <c r="Q22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R22">
+        <v>1.023161221858194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9499265803736832</v>
+        <v>0.9743733773866632</v>
       </c>
       <c r="D23">
-        <v>0.9785141213217051</v>
+        <v>1.002900497993589</v>
       </c>
       <c r="E23">
-        <v>0.9676110049356134</v>
+        <v>0.9903655426418705</v>
       </c>
       <c r="F23">
-        <v>0.9657251331910535</v>
+        <v>0.9894058695868316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026685213790297</v>
+        <v>1.037650563767905</v>
       </c>
       <c r="J23">
-        <v>0.9823142140492228</v>
+        <v>1.005592329153815</v>
       </c>
       <c r="K23">
-        <v>0.9942005814984849</v>
+        <v>1.018103228752588</v>
       </c>
       <c r="L23">
-        <v>0.983524181940901</v>
+        <v>1.005813006983324</v>
       </c>
       <c r="M23">
-        <v>0.9816782123225297</v>
+        <v>1.00487240664659</v>
       </c>
       <c r="N23">
-        <v>0.9837092129061878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005066047252286</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023930192422558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9668181320589135</v>
+        <v>0.9830369970284616</v>
       </c>
       <c r="D24">
-        <v>0.9912078225587911</v>
+        <v>1.008467391521704</v>
       </c>
       <c r="E24">
-        <v>0.9824870615464472</v>
+        <v>0.9978323537828784</v>
       </c>
       <c r="F24">
-        <v>0.9821259938687135</v>
+        <v>0.9980095608298453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031454996972185</v>
+        <v>1.039381280025119</v>
       </c>
       <c r="J24">
-        <v>0.9956561604843669</v>
+        <v>1.011204031081755</v>
       </c>
       <c r="K24">
-        <v>1.005391118228701</v>
+        <v>1.022347424244261</v>
       </c>
       <c r="L24">
-        <v>0.996828866117346</v>
+        <v>1.011897642952784</v>
       </c>
       <c r="M24">
-        <v>0.9964744402914308</v>
+        <v>1.012071721208158</v>
       </c>
       <c r="N24">
-        <v>0.9970701064356124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007025862573343</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026923513949881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.98481870609418</v>
+        <v>0.992645565917444</v>
       </c>
       <c r="D25">
-        <v>1.004772513178579</v>
+        <v>1.014666534290434</v>
       </c>
       <c r="E25">
-        <v>0.998392158203836</v>
+        <v>1.006149468198296</v>
       </c>
       <c r="F25">
-        <v>0.9996660131136768</v>
+        <v>1.007593038682519</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036483554593371</v>
+        <v>1.041255611935973</v>
       </c>
       <c r="J25">
-        <v>1.009868009835226</v>
+        <v>1.017422996552446</v>
       </c>
       <c r="K25">
-        <v>1.017297191052047</v>
+        <v>1.027041358990786</v>
       </c>
       <c r="L25">
-        <v>1.011015485227201</v>
+        <v>1.018653065793044</v>
       </c>
       <c r="M25">
-        <v>1.012269516011808</v>
+        <v>1.020074615030757</v>
       </c>
       <c r="N25">
-        <v>1.011302138242671</v>
+        <v>1.009196004453401</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030239536468212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999454905188482</v>
+        <v>1.000462224051835</v>
       </c>
       <c r="D2">
-        <v>1.019372342552182</v>
+        <v>1.019510145624044</v>
       </c>
       <c r="E2">
-        <v>1.012490637500293</v>
+        <v>1.012976397875888</v>
       </c>
       <c r="F2">
-        <v>1.014905955074203</v>
+        <v>1.015408091529242</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042626871162079</v>
+        <v>1.042714442502238</v>
       </c>
       <c r="J2">
-        <v>1.022127832077283</v>
+        <v>1.02262911886117</v>
       </c>
       <c r="K2">
-        <v>1.030568229209685</v>
+        <v>1.030704203286094</v>
       </c>
       <c r="L2">
-        <v>1.023778657945097</v>
+        <v>1.024257863229313</v>
       </c>
       <c r="M2">
-        <v>1.026161459896265</v>
+        <v>1.026656860865233</v>
       </c>
       <c r="N2">
-        <v>1.010830192831298</v>
+        <v>1.01287955195718</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032684571739293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03278956051183</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020195351544061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005103139029966</v>
+        <v>1.005275207432902</v>
       </c>
       <c r="D3">
-        <v>1.022716046847952</v>
+        <v>1.022500878539004</v>
       </c>
       <c r="E3">
-        <v>1.01698707151608</v>
+        <v>1.017162803314854</v>
       </c>
       <c r="F3">
-        <v>1.020089719139454</v>
+        <v>1.02026745711517</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043581043438187</v>
+        <v>1.043518516216932</v>
       </c>
       <c r="J3">
-        <v>1.025455647498113</v>
+        <v>1.025623090749705</v>
       </c>
       <c r="K3">
-        <v>1.033066293315233</v>
+        <v>1.032853728957936</v>
       </c>
       <c r="L3">
-        <v>1.02740711711478</v>
+        <v>1.02758069334297</v>
       </c>
       <c r="M3">
-        <v>1.030471842595454</v>
+        <v>1.030647416847143</v>
       </c>
       <c r="N3">
-        <v>1.01198837613156</v>
+        <v>1.01370666807664</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034448266508897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034306519708784</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020673010965571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008368386540066</v>
+        <v>1.008325724570883</v>
       </c>
       <c r="D4">
-        <v>1.02483628283853</v>
+        <v>1.024399829265063</v>
       </c>
       <c r="E4">
-        <v>1.019839930713564</v>
+        <v>1.019822362833349</v>
       </c>
       <c r="F4">
-        <v>1.023379302337374</v>
+        <v>1.023355022652852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044174385197178</v>
+        <v>1.04401765468272</v>
       </c>
       <c r="J4">
-        <v>1.02756042377207</v>
+        <v>1.02751882887039</v>
       </c>
       <c r="K4">
-        <v>1.034643919123253</v>
+        <v>1.034212425496982</v>
       </c>
       <c r="L4">
-        <v>1.029704659977204</v>
+        <v>1.029687294062509</v>
       </c>
       <c r="M4">
-        <v>1.033203516411289</v>
+        <v>1.03317951347868</v>
       </c>
       <c r="N4">
-        <v>1.012720390252871</v>
+        <v>1.01423013153946</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035564702490886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035268228678919</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020972350279583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009729424433704</v>
+        <v>1.009597909607817</v>
       </c>
       <c r="D5">
-        <v>1.025723107907387</v>
+        <v>1.025194861365212</v>
       </c>
       <c r="E5">
-        <v>1.021030881870954</v>
+        <v>1.020933285538031</v>
       </c>
       <c r="F5">
-        <v>1.024752174786796</v>
+        <v>1.024644313875753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044420795426819</v>
+        <v>1.044224935174074</v>
       </c>
       <c r="J5">
-        <v>1.02843884066318</v>
+        <v>1.028310514478514</v>
       </c>
       <c r="K5">
-        <v>1.035303608646837</v>
+        <v>1.034781203704687</v>
       </c>
       <c r="L5">
-        <v>1.030663531888524</v>
+        <v>1.030567026501947</v>
       </c>
       <c r="M5">
-        <v>1.034343418266875</v>
+        <v>1.034236752311309</v>
       </c>
       <c r="N5">
-        <v>1.013026370773529</v>
+        <v>1.014449130681136</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036038374334067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035678326297591</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021097544942781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009962949161931</v>
+        <v>1.009816075559844</v>
       </c>
       <c r="D6">
-        <v>1.025878124985399</v>
+        <v>1.025334091412596</v>
       </c>
       <c r="E6">
-        <v>1.021235741482415</v>
+        <v>1.021124291492231</v>
       </c>
       <c r="F6">
-        <v>1.024987647345305</v>
+        <v>1.024865325392792</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044465009503006</v>
+        <v>1.044262381365175</v>
       </c>
       <c r="J6">
-        <v>1.02859149488721</v>
+        <v>1.028448163505673</v>
       </c>
       <c r="K6">
-        <v>1.035420474670448</v>
+        <v>1.034882429401249</v>
       </c>
       <c r="L6">
-        <v>1.030829443194382</v>
+        <v>1.030719233075513</v>
       </c>
       <c r="M6">
-        <v>1.034539802795359</v>
+        <v>1.034418829464055</v>
       </c>
       <c r="N6">
-        <v>1.013080280438299</v>
+        <v>1.014487763718626</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036129799901843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035759560758765</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021120412885642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00840270574851</v>
+        <v>1.008369701245683</v>
       </c>
       <c r="D7">
-        <v>1.024866191660984</v>
+        <v>1.02443605628378</v>
       </c>
       <c r="E7">
-        <v>1.019871140462661</v>
+        <v>1.019862686594742</v>
       </c>
       <c r="F7">
-        <v>1.023413412369288</v>
+        <v>1.023398533518715</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044186240954183</v>
+        <v>1.044032404491392</v>
       </c>
       <c r="J7">
-        <v>1.02758787170649</v>
+        <v>1.027555692329231</v>
       </c>
       <c r="K7">
-        <v>1.034670584321875</v>
+        <v>1.034245335069461</v>
       </c>
       <c r="L7">
-        <v>1.029732587956897</v>
+        <v>1.029724231236222</v>
       </c>
       <c r="M7">
-        <v>1.03323432822295</v>
+        <v>1.033219618896401</v>
       </c>
       <c r="N7">
-        <v>1.012731983145774</v>
+        <v>1.014268333765531</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035603782469795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035313721048994</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020982079075053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001724265693121</v>
+        <v>1.002159137568689</v>
       </c>
       <c r="D8">
-        <v>1.020534185905217</v>
+        <v>1.020577148110813</v>
       </c>
       <c r="E8">
-        <v>1.014041657118538</v>
+        <v>1.014455354117305</v>
       </c>
       <c r="F8">
-        <v>1.016691573826098</v>
+        <v>1.017117790238032</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042965180111551</v>
+        <v>1.043013315863813</v>
       </c>
       <c r="J8">
-        <v>1.02328256862977</v>
+        <v>1.023704892692722</v>
       </c>
       <c r="K8">
-        <v>1.031443010845768</v>
+        <v>1.031485420058857</v>
       </c>
       <c r="L8">
-        <v>1.025034726032543</v>
+        <v>1.0254430148024</v>
       </c>
       <c r="M8">
-        <v>1.027650095982063</v>
+        <v>1.028070776881161</v>
       </c>
       <c r="N8">
-        <v>1.011234868354401</v>
+        <v>1.013259544414201</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033326203175995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033367290644169</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020374092947479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.989343923707028</v>
+        <v>0.9906357986567207</v>
       </c>
       <c r="D9">
-        <v>1.012522033216236</v>
+        <v>1.01343133144059</v>
       </c>
       <c r="E9">
-        <v>1.003284967034444</v>
+        <v>1.004468786616198</v>
       </c>
       <c r="F9">
-        <v>1.004295284626623</v>
+        <v>1.005528929372166</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040608941309545</v>
+        <v>1.041025120898652</v>
       </c>
       <c r="J9">
-        <v>1.015278669738122</v>
+        <v>1.016523620452268</v>
       </c>
       <c r="K9">
-        <v>1.025415164319066</v>
+        <v>1.026310189449847</v>
       </c>
       <c r="L9">
-        <v>1.016324971827511</v>
+        <v>1.017489774577315</v>
       </c>
       <c r="M9">
-        <v>1.017319056120775</v>
+        <v>1.018532935968389</v>
       </c>
       <c r="N9">
-        <v>1.008444373141046</v>
+        <v>1.011282893071586</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029060822888527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029704530237421</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019208063288388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9806514336301387</v>
+        <v>0.9826282162514552</v>
       </c>
       <c r="D10">
-        <v>1.006925581136597</v>
+        <v>1.00850067668724</v>
       </c>
       <c r="E10">
-        <v>0.9957718561690957</v>
+        <v>0.9975722585186851</v>
       </c>
       <c r="F10">
-        <v>0.9956371812257249</v>
+        <v>0.9975184658946029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038903293719411</v>
+        <v>1.039603145164536</v>
       </c>
       <c r="J10">
-        <v>1.009654318186822</v>
+        <v>1.011548434183227</v>
       </c>
       <c r="K10">
-        <v>1.021170907898064</v>
+        <v>1.022718126469458</v>
       </c>
       <c r="L10">
-        <v>1.010217873012776</v>
+        <v>1.011985485375211</v>
       </c>
       <c r="M10">
-        <v>1.010085657054443</v>
+        <v>1.011932670222236</v>
       </c>
       <c r="N10">
-        <v>1.006482551632507</v>
+        <v>1.01002792378409</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026076794675198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027183349232041</v>
+      </c>
+      <c r="S10">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T10">
+        <v>1.01838974818334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9767917652133628</v>
+        <v>0.9791742501864135</v>
       </c>
       <c r="D11">
-        <v>1.004457669148964</v>
+        <v>1.006402781265751</v>
       </c>
       <c r="E11">
-        <v>0.9924480277139428</v>
+        <v>0.9946179348951851</v>
       </c>
       <c r="F11">
-        <v>0.9918040401083771</v>
+        <v>0.9940724966309327</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038141190647426</v>
+        <v>1.039001146122653</v>
       </c>
       <c r="J11">
-        <v>1.007162953138294</v>
+        <v>1.009439823102821</v>
       </c>
       <c r="K11">
-        <v>1.019296007148229</v>
+        <v>1.02120495228081</v>
       </c>
       <c r="L11">
-        <v>1.007513782423387</v>
+        <v>1.009642067863606</v>
       </c>
       <c r="M11">
-        <v>1.006882193270711</v>
+        <v>1.009107069461488</v>
       </c>
       <c r="N11">
-        <v>1.005616528655068</v>
+        <v>1.009685018745295</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024784400924093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026149922756862</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018050613527737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9753272276636106</v>
+        <v>0.9778744650362391</v>
       </c>
       <c r="D12">
-        <v>1.003517186294631</v>
+        <v>1.005610788557066</v>
       </c>
       <c r="E12">
-        <v>0.9911872498585992</v>
+        <v>0.9935077129012551</v>
       </c>
       <c r="F12">
-        <v>0.9903514154068178</v>
+        <v>0.9927775567054598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037846390203251</v>
+        <v>1.038771000655762</v>
       </c>
       <c r="J12">
-        <v>1.006213774947561</v>
+        <v>1.008645659138672</v>
       </c>
       <c r="K12">
-        <v>1.018577311367544</v>
+        <v>1.020631278423634</v>
       </c>
       <c r="L12">
-        <v>1.006485258519309</v>
+        <v>1.008760360913808</v>
       </c>
       <c r="M12">
-        <v>1.005665831404206</v>
+        <v>1.008044447893602</v>
       </c>
       <c r="N12">
-        <v>1.005284794205648</v>
+        <v>1.009571504643204</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02427624619788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025744316148886</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017921120664486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9756398469606965</v>
+        <v>0.9781514957582361</v>
       </c>
       <c r="D13">
-        <v>1.003716849270361</v>
+        <v>1.005778421592548</v>
       </c>
       <c r="E13">
-        <v>0.9914560688226935</v>
+        <v>0.9937440018840424</v>
       </c>
       <c r="F13">
-        <v>0.9906614204238293</v>
+        <v>0.9930534900907836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037908632566447</v>
+        <v>1.0388193101614</v>
       </c>
       <c r="J13">
-        <v>1.006415649646849</v>
+        <v>1.008814073665773</v>
       </c>
       <c r="K13">
-        <v>1.018729389227519</v>
+        <v>1.020752082305728</v>
       </c>
       <c r="L13">
-        <v>1.006704217271753</v>
+        <v>1.008947606001963</v>
       </c>
       <c r="M13">
-        <v>1.005925103244966</v>
+        <v>1.008270509598016</v>
       </c>
       <c r="N13">
-        <v>1.005354999568422</v>
+        <v>1.009594335723738</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024381244313353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02582695990086</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017948133940593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9766700753084927</v>
+        <v>0.9790660551450473</v>
       </c>
       <c r="D14">
-        <v>1.004379055837973</v>
+        <v>1.006336352699607</v>
       </c>
       <c r="E14">
-        <v>0.9923431366288438</v>
+        <v>0.9945253717607385</v>
       </c>
       <c r="F14">
-        <v>0.9916833080142617</v>
+        <v>0.9939646757694404</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03811640492374</v>
+        <v>1.038981670954933</v>
       </c>
       <c r="J14">
-        <v>1.007083770936622</v>
+        <v>1.0093733490221</v>
       </c>
       <c r="K14">
-        <v>1.019235720532047</v>
+        <v>1.021156569288426</v>
       </c>
       <c r="L14">
-        <v>1.007428069893555</v>
+        <v>1.00956838084973</v>
       </c>
       <c r="M14">
-        <v>1.006780965219615</v>
+        <v>1.009018433706518</v>
       </c>
       <c r="N14">
-        <v>1.00558870649613</v>
+        <v>1.009674960748296</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024740692152238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026114528459334</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018039582854158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9773070351774937</v>
+        <v>0.9796327990527564</v>
       </c>
       <c r="D15">
-        <v>1.004790699920121</v>
+        <v>1.006684538961168</v>
       </c>
       <c r="E15">
-        <v>0.9928922549216912</v>
+        <v>0.9950103629205495</v>
       </c>
       <c r="F15">
-        <v>0.9923153253311318</v>
+        <v>0.9945295301256571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038246148316119</v>
+        <v>1.039083766460711</v>
       </c>
       <c r="J15">
-        <v>1.007498306641678</v>
+        <v>1.00972174357178</v>
       </c>
       <c r="K15">
-        <v>1.019551404018874</v>
+        <v>1.021410252857521</v>
       </c>
       <c r="L15">
-        <v>1.007876788508757</v>
+        <v>1.009954539209981</v>
       </c>
       <c r="M15">
-        <v>1.007310890499008</v>
+        <v>1.009482848220039</v>
       </c>
       <c r="N15">
-        <v>1.005734394093455</v>
+        <v>1.009728431645959</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024969850817544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026300411014407</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018097455863988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9809455765012238</v>
+        <v>0.9828925889349449</v>
       </c>
       <c r="D16">
-        <v>1.007131647994583</v>
+        <v>1.008679616829206</v>
       </c>
       <c r="E16">
-        <v>0.9960292586558426</v>
+        <v>0.9978024372862458</v>
       </c>
       <c r="F16">
-        <v>0.9959292860449313</v>
+        <v>0.9977820878232804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038974231147163</v>
+        <v>1.039661998556007</v>
       </c>
       <c r="J16">
-        <v>1.00985685067318</v>
+        <v>1.011722769137215</v>
       </c>
       <c r="K16">
-        <v>1.021337018238146</v>
+        <v>1.022857684102637</v>
       </c>
       <c r="L16">
-        <v>1.010433688305745</v>
+        <v>1.012174688301634</v>
       </c>
       <c r="M16">
-        <v>1.010335534380848</v>
+        <v>1.012154707285431</v>
       </c>
       <c r="N16">
-        <v>1.006558842897408</v>
+        <v>1.010067296886605</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026235577931702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027327308484598</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018425261492159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831952528716106</v>
+        <v>0.9849291119070419</v>
       </c>
       <c r="D17">
-        <v>1.008581058087613</v>
+        <v>1.009930701642586</v>
       </c>
       <c r="E17">
-        <v>0.9979715244459719</v>
+        <v>0.9995513203704977</v>
       </c>
       <c r="F17">
-        <v>0.9981668048715303</v>
+        <v>0.9998168776511664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039421258608608</v>
+        <v>1.040023575981302</v>
       </c>
       <c r="J17">
-        <v>1.011314889733395</v>
+        <v>1.01297902053966</v>
       </c>
       <c r="K17">
-        <v>1.022440284732232</v>
+        <v>1.02376682167756</v>
       </c>
       <c r="L17">
-        <v>1.012015213912502</v>
+        <v>1.013567221142051</v>
       </c>
       <c r="M17">
-        <v>1.012207053168089</v>
+        <v>1.01382811842754</v>
       </c>
       <c r="N17">
-        <v>1.00706840805524</v>
+        <v>1.010317542821671</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.02701825993629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027972968350365</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018631720059519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.984483684559498</v>
+        <v>0.9861037785262082</v>
       </c>
       <c r="D18">
-        <v>1.009406415211358</v>
+        <v>1.010648466757561</v>
       </c>
       <c r="E18">
-        <v>0.9990836873323998</v>
+        <v>1.000560596562687</v>
       </c>
       <c r="F18">
-        <v>0.9994494570033691</v>
+        <v>1.000991606143988</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039672128846005</v>
+        <v>1.040228376715677</v>
       </c>
       <c r="J18">
-        <v>1.012145972819354</v>
+        <v>1.01370224648805</v>
       </c>
       <c r="K18">
-        <v>1.023064733279193</v>
+        <v>1.024285890847196</v>
       </c>
       <c r="L18">
-        <v>1.012918256293729</v>
+        <v>1.014369660390942</v>
       </c>
       <c r="M18">
-        <v>1.01327770030806</v>
+        <v>1.014793245098528</v>
       </c>
       <c r="N18">
-        <v>1.007357057881782</v>
+        <v>1.010474187887435</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027447993171256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028327059858686</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018748553170665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9849306670002697</v>
+        <v>0.9865124469931087</v>
       </c>
       <c r="D19">
-        <v>1.009697091199988</v>
+        <v>1.010902706171554</v>
       </c>
       <c r="E19">
-        <v>0.9994705662593535</v>
+        <v>1.000912833314144</v>
       </c>
       <c r="F19">
-        <v>0.9998945254704208</v>
+        <v>1.001400339129993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039762088214562</v>
+        <v>1.040302679300163</v>
       </c>
       <c r="J19">
-        <v>1.012437281546782</v>
+        <v>1.013957192464162</v>
       </c>
       <c r="K19">
-        <v>1.023286856458879</v>
+        <v>1.024472312989014</v>
       </c>
       <c r="L19">
-        <v>1.013233852144956</v>
+        <v>1.014651369710582</v>
       </c>
       <c r="M19">
-        <v>1.013650526583852</v>
+        <v>1.015130530693042</v>
       </c>
       <c r="N19">
-        <v>1.007459607024622</v>
+        <v>1.010533479269763</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.02761151458099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02846595497897</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018791531024928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9829541069581095</v>
+        <v>0.9847100053185708</v>
       </c>
       <c r="D20">
-        <v>1.008425198924802</v>
+        <v>1.009795504912406</v>
       </c>
       <c r="E20">
-        <v>0.997763141906637</v>
+        <v>0.9993629079447844</v>
       </c>
       <c r="F20">
-        <v>0.9979268578536629</v>
+        <v>0.9995978696931574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039373148527334</v>
+        <v>1.039984358696792</v>
       </c>
       <c r="J20">
-        <v>1.011158310133075</v>
+        <v>1.01284332580867</v>
       </c>
       <c r="K20">
-        <v>1.022321501675423</v>
+        <v>1.023668271580794</v>
       </c>
       <c r="L20">
-        <v>1.011845438134093</v>
+        <v>1.013416969106451</v>
       </c>
       <c r="M20">
-        <v>1.012006259184239</v>
+        <v>1.013647793765005</v>
       </c>
       <c r="N20">
-        <v>1.007013551624841</v>
+        <v>1.010288847795727</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026932922754416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027901809333035</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018609221681392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9763807360014378</v>
+        <v>0.978841614825816</v>
       </c>
       <c r="D21">
-        <v>1.004198839384131</v>
+        <v>1.006209637052746</v>
       </c>
       <c r="E21">
-        <v>0.9920952624955663</v>
+        <v>0.9943380514435487</v>
       </c>
       <c r="F21">
-        <v>0.9913962070824892</v>
+        <v>0.9937405417421139</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038062375367588</v>
+        <v>1.038951603978961</v>
       </c>
       <c r="J21">
-        <v>1.006900271970903</v>
+        <v>1.009251391288652</v>
       </c>
       <c r="K21">
-        <v>1.019101097727342</v>
+        <v>1.021074313267603</v>
       </c>
       <c r="L21">
-        <v>1.007227956200242</v>
+        <v>1.009427491036403</v>
       </c>
       <c r="M21">
-        <v>1.006542435105545</v>
+        <v>1.008841479835186</v>
       </c>
       <c r="N21">
-        <v>1.005526481981601</v>
+        <v>1.009727862269592</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024659211200225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026071373740639</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018024642233516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9721198993811468</v>
+        <v>0.9750444443768507</v>
       </c>
       <c r="D22">
-        <v>1.001459238978492</v>
+        <v>1.003890910940396</v>
       </c>
       <c r="E22">
-        <v>0.9884290032689232</v>
+        <v>0.9910951256995871</v>
       </c>
       <c r="F22">
-        <v>0.9871735029519528</v>
+        <v>0.9899615879054285</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037197124305259</v>
+        <v>1.038269483101228</v>
       </c>
       <c r="J22">
-        <v>1.004134494980309</v>
+        <v>1.006920427955576</v>
       </c>
       <c r="K22">
-        <v>1.017001843380845</v>
+        <v>1.019385680193438</v>
       </c>
       <c r="L22">
-        <v>1.004233222485533</v>
+        <v>1.006845078282771</v>
       </c>
       <c r="M22">
-        <v>1.003003410710031</v>
+        <v>1.005734565603026</v>
       </c>
       <c r="N22">
-        <v>1.004557780001858</v>
+        <v>1.009350399813511</v>
       </c>
       <c r="Q22">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023161221858194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024862447148085</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017640292630883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9743733773866632</v>
+        <v>0.977030674533692</v>
       </c>
       <c r="D23">
-        <v>1.002900497993589</v>
+        <v>1.00509289828445</v>
       </c>
       <c r="E23">
-        <v>0.9903655426418705</v>
+        <v>0.9927867656247786</v>
       </c>
       <c r="F23">
-        <v>0.9894058695868316</v>
+        <v>0.9919375136825722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037650563767905</v>
+        <v>1.03861839086731</v>
       </c>
       <c r="J23">
-        <v>1.005592329153815</v>
+        <v>1.00812764221959</v>
       </c>
       <c r="K23">
-        <v>1.018103228752588</v>
+        <v>1.020253645035079</v>
       </c>
       <c r="L23">
-        <v>1.005813006983324</v>
+        <v>1.008186325337205</v>
       </c>
       <c r="M23">
-        <v>1.00487240664659</v>
+        <v>1.007353841122745</v>
       </c>
       <c r="N23">
-        <v>1.005066047252286</v>
+        <v>1.009499468757753</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023930192422558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025465434759548</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.0178349010485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9830369970284616</v>
+        <v>0.9847859099299313</v>
       </c>
       <c r="D24">
-        <v>1.008467391521704</v>
+        <v>1.009830884046832</v>
       </c>
       <c r="E24">
-        <v>0.9978323537828784</v>
+        <v>0.9994259019289722</v>
       </c>
       <c r="F24">
-        <v>0.9980095608298453</v>
+        <v>0.9996740201394151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039381280025119</v>
+        <v>1.039989796641615</v>
       </c>
       <c r="J24">
-        <v>1.011204031081755</v>
+        <v>1.012882459034495</v>
       </c>
       <c r="K24">
-        <v>1.022347424244261</v>
+        <v>1.023687530154415</v>
       </c>
       <c r="L24">
-        <v>1.011897642952784</v>
+        <v>1.013463106879165</v>
       </c>
       <c r="M24">
-        <v>1.012071721208158</v>
+        <v>1.01370686276875</v>
       </c>
       <c r="N24">
-        <v>1.007025862573343</v>
+        <v>1.010292872854965</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026923513949881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027885035043145</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018611017593074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.992645565917444</v>
+        <v>0.9936885225372415</v>
       </c>
       <c r="D25">
-        <v>1.014666534290434</v>
+        <v>1.015330664683712</v>
       </c>
       <c r="E25">
-        <v>1.006149468198296</v>
+        <v>1.007109021304548</v>
       </c>
       <c r="F25">
-        <v>1.007593038682519</v>
+        <v>1.008591503341599</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041255611935973</v>
+        <v>1.041567103918938</v>
       </c>
       <c r="J25">
-        <v>1.017422996552446</v>
+        <v>1.018430176112409</v>
       </c>
       <c r="K25">
-        <v>1.027041358990786</v>
+        <v>1.027695563639555</v>
       </c>
       <c r="L25">
-        <v>1.018653065793044</v>
+        <v>1.019597972226741</v>
       </c>
       <c r="M25">
-        <v>1.020074615030757</v>
+        <v>1.021057895405735</v>
       </c>
       <c r="N25">
-        <v>1.009196004453401</v>
+        <v>1.011779219050677</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030239536468212</v>
+        <v>1.030715746163146</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019524260238623</v>
       </c>
     </row>
   </sheetData>
